--- a/result/with_base/124/arousal/s12_1.xlsx
+++ b/result/with_base/124/arousal/s12_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8375000059604645</v>
+        <v>0.8515625</v>
       </c>
       <c r="C2" t="n">
-        <v>41705.193359375</v>
+        <v>11276.17041015625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8437500054186041</v>
+        <v>0.8426339275696698</v>
       </c>
       <c r="E2" t="n">
-        <v>41703.58913352273</v>
+        <v>11275.65544577206</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8650000095367432</v>
+        <v>0.8443080484867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40923.515625</v>
+        <v>10965.73046875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.875795451077548</v>
+        <v>0.8656775215092827</v>
       </c>
       <c r="E3" t="n">
-        <v>40921.49893465909</v>
+        <v>10964.22018612132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8824999928474426</v>
+        <v>0.8683035671710968</v>
       </c>
       <c r="C4" t="n">
-        <v>40143.275390625</v>
+        <v>10661.6083984375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9038636305115439</v>
+        <v>0.8768382352941176</v>
       </c>
       <c r="E4" t="n">
-        <v>40142.5078125</v>
+        <v>10661.0185546875</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8727678656578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39377.708984375</v>
+        <v>10363.619140625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9225000034679066</v>
+        <v>0.8888524174690247</v>
       </c>
       <c r="E5" t="n">
-        <v>39376.67613636364</v>
+        <v>10362.80980009191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8939732015132904</v>
       </c>
       <c r="C6" t="n">
-        <v>38623.404296875</v>
+        <v>10072.5732421875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9323863658038053</v>
+        <v>0.9069721628637875</v>
       </c>
       <c r="E6" t="n">
-        <v>38621.82173295454</v>
+        <v>10071.67434512868</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.89453125</v>
       </c>
       <c r="C7" t="n">
-        <v>37880.029296875</v>
+        <v>9788.77783203125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9428409067067233</v>
+        <v>0.9255514705882353</v>
       </c>
       <c r="E7" t="n">
-        <v>37878.77414772727</v>
+        <v>9787.696231617647</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8900669515132904</v>
       </c>
       <c r="C8" t="n">
-        <v>37150.26953125</v>
+        <v>9511.8125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9510227225043557</v>
+        <v>0.9273240531192106</v>
       </c>
       <c r="E8" t="n">
-        <v>37148.62535511364</v>
+        <v>9511.027228860294</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.890625</v>
       </c>
       <c r="C9" t="n">
-        <v>36432.630859375</v>
+        <v>9242.37890625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.9332326685681063</v>
       </c>
       <c r="E9" t="n">
-        <v>36430.89240056818</v>
+        <v>9241.202780330883</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C10" t="n">
-        <v>35728.30078125</v>
+        <v>8978.3623046875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9559090841900219</v>
+        <v>0.9493828766486224</v>
       </c>
       <c r="E10" t="n">
-        <v>35726.70703125</v>
+        <v>8977.605181525736</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9425000250339508</v>
+        <v>0.9029017984867096</v>
       </c>
       <c r="C11" t="n">
-        <v>35035.41796875</v>
+        <v>8722.48193359375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9729545495726846</v>
+        <v>0.933035713784835</v>
       </c>
       <c r="E11" t="n">
-        <v>35033.79829545454</v>
+        <v>8721.49161305147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34356.65234375</v>
+        <v>8471.935546875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9685227383266796</v>
+        <v>0.9542410724303302</v>
       </c>
       <c r="E12" t="n">
-        <v>34354.34268465909</v>
+        <v>8471.183363970587</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9029017984867096</v>
       </c>
       <c r="C13" t="n">
-        <v>33688.03125</v>
+        <v>8228.939453125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9822727387601679</v>
+        <v>0.9457064060603871</v>
       </c>
       <c r="E13" t="n">
-        <v>33686.16335227273</v>
+        <v>8227.905905330883</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C14" t="n">
-        <v>33032.46875</v>
+        <v>7990.914306640625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9838636517524719</v>
+        <v>0.9711790961377761</v>
       </c>
       <c r="E14" t="n">
-        <v>33030.55042613636</v>
+        <v>7990.321748621323</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9068080484867096</v>
       </c>
       <c r="C15" t="n">
-        <v>32389.083984375</v>
+        <v>7760.3779296875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9787500121376731</v>
+        <v>0.9625131312538596</v>
       </c>
       <c r="E15" t="n">
-        <v>32387.03995028409</v>
+        <v>7759.446576286765</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C16" t="n">
-        <v>31757.1044921875</v>
+        <v>7535.448486328125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9829545562917535</v>
+        <v>0.9623161764705882</v>
       </c>
       <c r="E16" t="n">
-        <v>31755.22194602273</v>
+        <v>7534.520479090073</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9068080484867096</v>
       </c>
       <c r="C17" t="n">
-        <v>31136.6123046875</v>
+        <v>7316.625732421875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9846590974114158</v>
+        <v>0.9704569332739886</v>
       </c>
       <c r="E17" t="n">
-        <v>31135.0546875</v>
+        <v>7315.507956112132</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C18" t="n">
-        <v>30527.619140625</v>
+        <v>7103.10693359375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9782037805108463</v>
       </c>
       <c r="E18" t="n">
-        <v>30526.19389204546</v>
+        <v>7102.331801470588</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.90625</v>
       </c>
       <c r="C19" t="n">
-        <v>29930.560546875</v>
+        <v>6895.781982421875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.983522734858773</v>
+        <v>0.9509585079024819</v>
       </c>
       <c r="E19" t="n">
-        <v>29928.70667613636</v>
+        <v>6895.028751148897</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9068080484867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29343.5849609375</v>
+        <v>6693.93505859375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9682904411764706</v>
       </c>
       <c r="E20" t="n">
-        <v>29341.90625</v>
+        <v>6693.018755744485</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C21" t="n">
-        <v>28768.142578125</v>
+        <v>6497.397216796875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.964548317825093</v>
       </c>
       <c r="E21" t="n">
-        <v>28766.23259943182</v>
+        <v>6496.543571920956</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C22" t="n">
-        <v>28203.373046875</v>
+        <v>6305.907470703125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9839772798798301</v>
+        <v>0.9824711119427401</v>
       </c>
       <c r="E22" t="n">
-        <v>28201.28178267046</v>
+        <v>6305.183421415441</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C23" t="n">
-        <v>27647.5654296875</v>
+        <v>6119.60693359375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9805672273916357</v>
       </c>
       <c r="E23" t="n">
-        <v>27646.62038352273</v>
+        <v>6119.093376608456</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27103.8955078125</v>
+        <v>5938.7294921875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9864772829142484</v>
+        <v>0.9701943292337305</v>
       </c>
       <c r="E24" t="n">
-        <v>27102.49840198864</v>
+        <v>5938.12948069853</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.953125</v>
       </c>
       <c r="C25" t="n">
-        <v>26569.7109375</v>
+        <v>5762.141845703125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9862132352941176</v>
       </c>
       <c r="E25" t="n">
-        <v>26568.22301136364</v>
+        <v>5761.860294117647</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26045.6259765625</v>
+        <v>5590.88623046875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9871323529411765</v>
       </c>
       <c r="E26" t="n">
-        <v>26044.04190340909</v>
+        <v>5590.453153722427</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C27" t="n">
-        <v>25531.1787109375</v>
+        <v>5424.10498046875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E27" t="n">
-        <v>25529.5859375</v>
+        <v>5423.732393152573</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25026.486328125</v>
+        <v>5261.96337890625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E28" t="n">
-        <v>25024.79385653409</v>
+        <v>5261.489315257353</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C29" t="n">
-        <v>24530.662109375</v>
+        <v>5104.4609375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9791885509210474</v>
       </c>
       <c r="E29" t="n">
-        <v>24529.30646306818</v>
+        <v>5103.751436121323</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C30" t="n">
-        <v>24044.08203125</v>
+        <v>4950.80859375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9804359253715066</v>
       </c>
       <c r="E30" t="n">
-        <v>24043.14577414773</v>
+        <v>4950.28116383272</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9453125</v>
       </c>
       <c r="C31" t="n">
-        <v>23567.107421875</v>
+        <v>4801.40087890625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9879201685681063</v>
       </c>
       <c r="E31" t="n">
-        <v>23566.14506392046</v>
+        <v>4801.027774586397</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9196428656578064</v>
       </c>
       <c r="C32" t="n">
-        <v>23098.7861328125</v>
+        <v>4656.32958984375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E32" t="n">
-        <v>23098.00159801136</v>
+        <v>4655.892578125</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9190848171710968</v>
       </c>
       <c r="C33" t="n">
-        <v>22639.7626953125</v>
+        <v>4515.25341796875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9680934863931993</v>
       </c>
       <c r="E33" t="n">
-        <v>22638.69247159091</v>
+        <v>4514.853285845588</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C34" t="n">
-        <v>22188.6318359375</v>
+        <v>4377.872314453125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9930409648839165</v>
       </c>
       <c r="E34" t="n">
-        <v>22187.95845170454</v>
+        <v>4377.5263671875</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9056919515132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21746.6484375</v>
+        <v>4244.566650390625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9543067216873169</v>
       </c>
       <c r="E35" t="n">
-        <v>21745.74200994318</v>
+        <v>4244.261891084559</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C36" t="n">
-        <v>21312.69921875</v>
+        <v>4114.784423828125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E36" t="n">
-        <v>21311.76296164773</v>
+        <v>4114.411678538603</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20887.087890625</v>
+        <v>3988.636352539062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.9901523099226111</v>
       </c>
       <c r="E37" t="n">
-        <v>20885.99520596591</v>
+        <v>3988.321906594669</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9235491156578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20469.376953125</v>
+        <v>3866.133178710938</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9835871843730702</v>
       </c>
       <c r="E38" t="n">
-        <v>20468.19247159091</v>
+        <v>3865.786721622243</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9375</v>
       </c>
       <c r="C39" t="n">
-        <v>20059.30078125</v>
+        <v>3746.911254882812</v>
       </c>
       <c r="D39" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E39" t="n">
-        <v>20058.22993607954</v>
+        <v>3746.618293313419</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C40" t="n">
-        <v>19657.21875</v>
+        <v>3631.172729492188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9856223744504592</v>
       </c>
       <c r="E40" t="n">
-        <v>19656.00710227273</v>
+        <v>3630.816420611213</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19262.1259765625</v>
+        <v>3518.620971679688</v>
       </c>
       <c r="D41" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9740677510990816</v>
       </c>
       <c r="E41" t="n">
-        <v>19261.31534090909</v>
+        <v>3518.287741268382</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9453125</v>
       </c>
       <c r="C42" t="n">
-        <v>18875.1552734375</v>
+        <v>3409.132080078125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E42" t="n">
-        <v>18874.11612215909</v>
+        <v>3408.867474724265</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18495.072265625</v>
+        <v>3302.957275390625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9726890746284934</v>
       </c>
       <c r="E43" t="n">
-        <v>18494.19424715909</v>
+        <v>3302.612362132353</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18122.31640625</v>
+        <v>3199.645385742188</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E44" t="n">
-        <v>18121.45969460227</v>
+        <v>3199.294577205882</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9146205484867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17756.79296875</v>
+        <v>3099.41259765625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9239758393343758</v>
       </c>
       <c r="E45" t="n">
-        <v>17755.78462357954</v>
+        <v>3099.261977251838</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17397.7060546875</v>
+        <v>3001.747924804688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9774159648839165</v>
       </c>
       <c r="E46" t="n">
-        <v>17396.994140625</v>
+        <v>3001.51859777114</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17045.8515625</v>
+        <v>2907.083251953125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.964417015804964</v>
       </c>
       <c r="E47" t="n">
-        <v>17045.00248579546</v>
+        <v>2906.874439912684</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C48" t="n">
-        <v>16700.47265625</v>
+        <v>2815.212158203125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E48" t="n">
-        <v>16699.67418323864</v>
+        <v>2814.869241153493</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C49" t="n">
-        <v>16361.67236328125</v>
+        <v>2725.709716796875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9581801470588235</v>
       </c>
       <c r="E49" t="n">
-        <v>16360.89604048295</v>
+        <v>2725.599666819853</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C50" t="n">
-        <v>16029.4404296875</v>
+        <v>2638.918579101562</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9795824569814345</v>
       </c>
       <c r="E50" t="n">
-        <v>16028.52752130682</v>
+        <v>2638.739731732537</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C51" t="n">
-        <v>15703.44189453125</v>
+        <v>2554.659057617188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9884091019630432</v>
+        <v>0.9749868687461404</v>
       </c>
       <c r="E51" t="n">
-        <v>15702.53036221591</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15383.072265625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15382.61310369318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15069.48046875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15068.83611505682</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14761.72607421875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14760.98952414773</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14459.81494140625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14459.02095170455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14163.50732421875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14162.80131392045</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13872.62060546875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13872.18483664773</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13587.73095703125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.995568183335391</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13587.12952769886</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13307.98193359375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13307.49529474432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13033.76318359375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13033.21768465909</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12764.70751953125</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12764.17658025568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12500.90625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12500.2958984375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12241.876953125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12241.43430397727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11987.99560546875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11987.54607599432</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11739.0419921875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11738.53284801136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11494.853515625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11494.29234730114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11255.1298828125</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11254.73792613636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11020.3916015625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9929545521736145</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11019.83318536932</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10789.92431640625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10789.41983309659</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10563.79736328125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10563.44477982955</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10342.1396484375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10341.85076349432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10124.88330078125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10124.52263849432</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9911.78759765625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9911.387872869318</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9702.70654296875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9702.390625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9497.77734375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9497.451704545454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9296.74755859375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9296.489790482954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9099.7529296875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9946590932932767</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9099.43954190341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8906.7119140625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9927272796630859</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8906.2216796875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8716.99365234375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8716.75381747159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8531.349609375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9913636445999146</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8531.0029296875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8349.04833984375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8348.857421875</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2564102564102564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.358974358974359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4102564102564102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4102564102564102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.004975124378109453</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8974358974358975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.0845771144278607</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8974358974358975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.0845771144278607</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1144278606965174</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9230769230769231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1144278606965174</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2288557213930348</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9487179487179487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2288557213930348</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.3532338308457711</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.3532338308457711</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9775481566526342</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7810945273631841</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8109452736318408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8308457711442786</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8407960199004975</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.05128205128205128</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8855721393034826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8855721393034826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9154228855721394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9154228855721394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1025641025641026</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.5897435897435898</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9950248756218906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.5897435897435898</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9612195433090955</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2554.467299517463</v>
       </c>
     </row>
   </sheetData>
